--- a/task3/analysis.xlsx
+++ b/task3/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luca\Daten\Eigene Dokumente\schule\ZHAW\Semester5\SIM\task3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED87A974-FD82-4293-9419-EEB69212DFED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EA0609-938F-4F6A-A2C2-7A5EEF2D5B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{590EE168-739F-48A3-B18B-D6686C44334C}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{590EE168-739F-48A3-B18B-D6686C44334C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Entryqueue</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>CONV</t>
+  </si>
+  <si>
+    <t>Covariance</t>
   </si>
 </sst>
 </file>
@@ -2079,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F41A03-EDD1-45D7-9D76-51EFA94B9443}">
   <dimension ref="A2:J1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="I3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,8 +2116,8 @@
         <v>1.97</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(Table1[Idlewaitque])</f>
-        <v>32.277000000000001</v>
+        <f>AVERAGE(Table1[OperFrq])</f>
+        <v>80.884</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2140,6 +2143,13 @@
       <c r="F3">
         <f>_xlfn.CONFIDENCE.NORM($J$5,_xlfn.STDEV.P(Table1[OperFrq]),COUNTA(Table1[OperFrq]))</f>
         <v>0.70584979490139643</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.COVARIANCE.P(Table1[BlockFrq],Table1[RecoveryBusyCount])</f>
+        <v>2.7108600000000069</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -19178,7 +19188,7 @@
   <dimension ref="A2:J1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19211,8 +19221,8 @@
         <v>2.23</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(Table13[Idlewaitque])</f>
-        <v>96.876999999999995</v>
+        <f>AVERAGE(Table13[OperFrq])</f>
+        <v>80.753</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -19238,6 +19248,13 @@
       <c r="F3">
         <f>_xlfn.CONFIDENCE.NORM($J$5,_xlfn.STDEV.P(Table13[OperFrq]),COUNTA(Table13[OperFrq]))</f>
         <v>0.80703880052815169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.COVARIANCE.P(Table13[BlockFrq],Table13[RecoveryBusyCount])</f>
+        <v>3.9292299999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -36275,8 +36292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24CD344-F2BF-4398-940E-D034406397EA}">
   <dimension ref="A2:J1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36309,8 +36326,8 @@
         <v>7.3330000000000002</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(Table134[Idlewaitque])</f>
-        <v>25.744</v>
+        <f>AVERAGE(Table134[OperFrq])</f>
+        <v>80.662000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -36336,6 +36353,13 @@
       <c r="F3">
         <f>_xlfn.CONFIDENCE.NORM($J$5,_xlfn.STDEV.P(Table134[OperFrq]),COUNTA(Table134[OperFrq]))</f>
         <v>0.66081241866934648</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.COVARIANCE.P(Table134[BlockFrq],Table134[RecoveryBusyCount])</f>
+        <v>15.699035999999953</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
